--- a/biology/Botanique/Legousia_hybrida/Legousia_hybrida.xlsx
+++ b/biology/Botanique/Legousia_hybrida/Legousia_hybrida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Legousia hybrida, en français Spéculaire miroir de Vénus, Miroir de Vénus hybride, Spéculaire hybride, Petite Spéculaire, est une espèce de plantes annuelle de la famille des Campanulaceae et du genre Legousia, originaire d'Europe.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante annuelle de 10 à 35 cm de hauteur, toute hérissée de poils courts à tiges grêles, dressées. Les feuilles sont rudes, sessiles, obovales ou oblongues, fortement crispées-crénelées[3].
-Appareil reproducteur
-Les fleurs sont violacées, sessiles, peu nombreuses, en petits corymbes serrés. Le calice est scabre, à lobes elliptiques-lancéolés, atténués à la base, dressés, 3 à 4 fois plus courts que le tube. La corolle est petite, peu apparente, presque fermée, égalant à peine la moitié du calice. Le fruit est long de 2 à 3 cm, contracté au sommet. La floraison a lieu de Mai à Juillet[3].
-Confusions possibles
-Ses fleurs sont bien plus petites que celles de Legousia speculum-veneris, ce qui permet de différencier les deux espèces[4].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle de 10 à 35 cm de hauteur, toute hérissée de poils courts à tiges grêles, dressées. Les feuilles sont rudes, sessiles, obovales ou oblongues, fortement crispées-crénelées.
 </t>
         </is>
       </c>
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thérophyte, elle se rencontre dans quelques rares cultures et pelouses xériques, jusqu'à 1 100 mètres d'altitude[4], sur sols plutôt calcaires et secs, ensoleillés[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont violacées, sessiles, peu nombreuses, en petits corymbes serrés. Le calice est scabre, à lobes elliptiques-lancéolés, atténués à la base, dressés, 3 à 4 fois plus courts que le tube. La corolle est petite, peu apparente, presque fermée, égalant à peine la moitié du calice. Le fruit est long de 2 à 3 cm, contracté au sommet. La floraison a lieu de Mai à Juillet.
 </t>
         </is>
       </c>
@@ -575,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce se concentre en Europe du Sud et de l'Ouest principalement, à l'ouest jusqu'aux Canaries, à l'est jusqu'au Proche-Orient, au sud jusqu'au Maroc, au nord jusqu'au Danemark[2].
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fleurs sont bien plus petites que celles de Legousia speculum-veneris, ce qui permet de différencier les deux espèces.
 </t>
         </is>
       </c>
@@ -606,12 +631,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thérophyte, elle se rencontre dans quelques rares cultures et pelouses xériques, jusqu'à 1 100 mètres d'altitude, sur sols plutôt calcaires et secs, ensoleillés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Legousia_hybrida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Legousia_hybrida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se concentre en Europe du Sud et de l'Ouest principalement, à l'ouest jusqu'aux Canaries, à l'est jusqu'au Proche-Orient, au sud jusqu'au Maroc, au nord jusqu'au Danemark.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Legousia_hybrida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Legousia_hybrida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est menacée partout en France, classée « en danger critique d'extinction » (CR) en Alsace, Bretagne, Île-de-France, Limousin, Nord-Pas-de-Calais et Pays-de-la-Loire, et « en danger » (EN) en Aquitaine, Auvergne, Centre-Val-de-Loire, Franche-Comté, Haute-Normandie et Rhône-Alpes[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est menacée partout en France, classée « en danger critique d'extinction » (CR) en Alsace, Bretagne, Île-de-France, Limousin, Nord-Pas-de-Calais et Pays-de-la-Loire, et « en danger » (EN) en Aquitaine, Auvergne, Centre-Val-de-Loire, Franche-Comté, Haute-Normandie et Rhône-Alpes.
 </t>
         </is>
       </c>
